--- a/数据.xlsx
+++ b/数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UCAS_BigBird\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UCAS_BigBird\Desktop\help-liu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219C1A7F-8A12-40A6-A4EC-F14D2FE688D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7433D5-6439-4F50-8DF9-95A8674D8444}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11715" xr2:uid="{A559254A-5E77-40B1-BFD6-9BB01D9E0D1F}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7CB72F-D648-46DB-A1BB-C8A658A31EB6}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -403,386 +407,88 @@
     <col min="10" max="10" width="6.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.33</v>
+        <v>1.58</v>
       </c>
       <c r="C1">
-        <v>0.34</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.35</v>
-      </c>
-      <c r="E1">
         <v>0.36</v>
       </c>
-      <c r="F1">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="G1">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="H1">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="I1">
-        <v>0.505</v>
-      </c>
-      <c r="J1">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.2</v>
       </c>
       <c r="B2">
-        <v>0.33500000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="C2">
-        <v>0.34499999999999997</v>
+        <v>0.82</v>
       </c>
       <c r="D2">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="E2">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="G2">
-        <v>0.44</v>
-      </c>
-      <c r="H2">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.54</v>
-      </c>
-      <c r="J2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.4</v>
       </c>
       <c r="B3">
-        <v>0.34</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3">
-        <v>0.35</v>
+        <v>0.88</v>
       </c>
       <c r="D3">
-        <v>0.36</v>
-      </c>
-      <c r="E3">
-        <v>0.372</v>
-      </c>
-      <c r="F3">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="G3">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="H3">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="I3">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="J3">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>0.34399999999999997</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C4">
-        <v>0.35499999999999998</v>
+        <v>0.88</v>
       </c>
       <c r="D4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.39</v>
-      </c>
-      <c r="F4">
-        <v>0.44</v>
-      </c>
-      <c r="G4">
-        <v>0.5</v>
-      </c>
-      <c r="H4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I4">
-        <v>0.65</v>
-      </c>
-      <c r="J4">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.8</v>
       </c>
       <c r="B5">
-        <v>0.35399999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="C5">
-        <v>0.37</v>
+        <v>0.83</v>
       </c>
       <c r="D5">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="E5">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="F5">
-        <v>0.48</v>
-      </c>
-      <c r="G5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H5">
-        <v>0.64</v>
-      </c>
-      <c r="I5">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="J5">
-        <v>0.80500000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.36499999999999999</v>
+        <v>1.58</v>
       </c>
       <c r="C6">
-        <v>0.38500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
-        <v>0.43</v>
-      </c>
-      <c r="E6">
-        <v>0.46</v>
-      </c>
-      <c r="F6">
-        <v>0.53</v>
-      </c>
-      <c r="G6">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="H6">
-        <v>0.68</v>
-      </c>
-      <c r="I6">
-        <v>0.77</v>
-      </c>
-      <c r="J6">
-        <v>0.86499999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1.2</v>
-      </c>
-      <c r="B7">
-        <v>0.39</v>
-      </c>
-      <c r="C7">
-        <v>0.435</v>
-      </c>
-      <c r="D7">
-        <v>0.47</v>
-      </c>
-      <c r="E7">
-        <v>0.498</v>
-      </c>
-      <c r="F7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G7">
-        <v>0.64</v>
-      </c>
-      <c r="H7">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="J7">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1.4</v>
-      </c>
-      <c r="B8">
-        <v>0.44</v>
-      </c>
-      <c r="C8">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="D8">
-        <v>0.498</v>
-      </c>
-      <c r="E8">
-        <v>0.53</v>
-      </c>
-      <c r="F8">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="G8">
-        <v>0.67</v>
-      </c>
-      <c r="H8">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.86</v>
-      </c>
-      <c r="J8">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1.6</v>
-      </c>
-      <c r="B9">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="C9">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="D9">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E9">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F9">
-        <v>0.62</v>
-      </c>
-      <c r="G9">
-        <v>0.71</v>
-      </c>
-      <c r="H9">
-        <v>0.8</v>
-      </c>
-      <c r="I9">
-        <v>0.90300000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1.8</v>
-      </c>
-      <c r="B10">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="C10">
-        <v>0.505</v>
-      </c>
-      <c r="D10">
-        <v>0.54</v>
-      </c>
-      <c r="E10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F10">
-        <v>0.65</v>
-      </c>
-      <c r="G10">
-        <v>0.74</v>
-      </c>
-      <c r="H10">
-        <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.53</v>
-      </c>
-      <c r="D11">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E11">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="F11">
-        <v>0.67</v>
-      </c>
-      <c r="G11">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B12">
-        <v>0.51</v>
-      </c>
-      <c r="C12">
-        <v>0.54</v>
-      </c>
-      <c r="D12">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E12">
-        <v>0.62</v>
-      </c>
-      <c r="F12">
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2.4</v>
-      </c>
-      <c r="B13">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="C13">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D13">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="E13">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2.6</v>
-      </c>
-      <c r="B14">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C14">
-        <v>0.57999999999999996</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
